--- a/src/Day015_ImageAndOfficeDocumentProcessing/formula.xlsx
+++ b/src/Day015_ImageAndOfficeDocumentProcessing/formula.xlsx
@@ -57,6 +57,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6838950" cy="2476500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,12 +373,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,7 +397,22 @@
         <v/>
       </c>
     </row>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>You should see logo below</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:E5"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Day015_ImageAndOfficeDocumentProcessing/formula.xlsx
+++ b/src/Day015_ImageAndOfficeDocumentProcessing/formula.xlsx
@@ -385,6 +385,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col hidden="1" max="10" min="7" outlineLevel="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n">
@@ -407,6 +410,17 @@
         </is>
       </c>
     </row>
+    <row hidden="1" outlineLevel="1" r="20"/>
+    <row hidden="1" outlineLevel="1" r="21"/>
+    <row hidden="1" outlineLevel="1" r="22"/>
+    <row hidden="1" outlineLevel="1" r="23"/>
+    <row hidden="1" outlineLevel="1" r="24"/>
+    <row hidden="1" outlineLevel="1" r="25"/>
+    <row hidden="1" outlineLevel="1" r="26"/>
+    <row hidden="1" outlineLevel="1" r="27"/>
+    <row hidden="1" outlineLevel="1" r="28"/>
+    <row hidden="1" outlineLevel="1" r="29"/>
+    <row hidden="1" outlineLevel="1" r="30"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:D3"/>
